--- a/New Student List.xlsx
+++ b/New Student List.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01 Rishi gurukulam\00 2019-20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABAMB2O\Downloads\rgkkh\fees_rgkkh-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D35A0A-97A4-4CCD-B7EF-67294F3479ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="2019-20" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>S.no</t>
   </si>
@@ -317,12 +316,15 @@
   </si>
   <si>
     <t>9th Grade</t>
+  </si>
+  <si>
+    <t>Auro Arpan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -486,23 +488,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -538,23 +523,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -730,21 +698,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -752,7 +720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -760,7 +728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -768,17 +736,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -786,7 +754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -794,7 +762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -802,7 +770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -810,7 +778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -818,7 +786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -826,17 +794,17 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -847,7 +815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -855,7 +823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -863,17 +831,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -884,7 +852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -892,17 +860,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -913,7 +881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -921,7 +889,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -929,7 +897,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>4</v>
       </c>
@@ -937,17 +905,17 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -958,7 +926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -966,7 +934,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>3</v>
       </c>
@@ -974,7 +942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>4</v>
       </c>
@@ -982,7 +950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>5</v>
       </c>
@@ -990,7 +958,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>6</v>
       </c>
@@ -998,7 +966,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>7</v>
       </c>
@@ -1006,17 +974,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -1027,7 +995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -1035,7 +1003,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>3</v>
       </c>
@@ -1043,7 +1011,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>4</v>
       </c>
@@ -1051,7 +1019,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>5</v>
       </c>
@@ -1059,7 +1027,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>6</v>
       </c>
@@ -1067,520 +1035,528 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>7</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>1</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C46">
+      <c r="C47">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>2</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>3</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>4</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>5</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>1</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>2</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>3</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>4</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>5</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>6</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>7</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>8</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>9</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>10</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="1" t="s">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>1</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C65">
+      <c r="C66">
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>2</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>3</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>4</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>5</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>6</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>7</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>8</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>9</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>10</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>11</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="3"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B77" s="3"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C78">
+      <c r="C79">
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>1</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>2</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>3</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>4</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>5</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>6</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>7</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>8</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>9</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>10</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B89" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>11</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>12</v>
       </c>
-      <c r="B90" s="1"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>1</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C92">
+      <c r="C93">
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>2</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>3</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>4</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>5</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>6</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>7</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>8</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>9</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
         <v>10</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>11</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
         <v>12</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
         <v>13</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
         <v>14</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
         <v>15</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
         <v>16</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
         <v>17</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
         <v>18</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="1"/>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
